--- a/biology/Zoologie/Homalopsis_mereljcoxi/Homalopsis_mereljcoxi.xlsx
+++ b/biology/Zoologie/Homalopsis_mereljcoxi/Homalopsis_mereljcoxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalopsis mereljcoxi est une espèce de serpents de la famille des Homalopsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalopsis mereljcoxi est une espèce de serpents de la famille des Homalopsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Thaïlande, au Cambodge et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Thaïlande, au Cambodge et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Merel "Jack" Cox (d)[1], herpétologiste thaïlandaise.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Merel "Jack" Cox (d), herpétologiste thaïlandaise.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John C. Murphy, Harold K. Voris, B.H.C.K. Murthy, Joshua Traub et Christina Cumberbatch, « The masked water snakes of the genus Homalopsis Kuhl &amp; van Hasselt, 1822 (Squamata, Serpentes, Homalopsidae), with the description of a new species », Zootaxa, Magnolia Press (d), vol. 3208, no 1,‎ 27 février 2012, p. 1 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.3208.1.1, lire en ligne)</t>
         </is>
